--- a/data/royalairmaroc/ram_esourcing_tenders.xlsx
+++ b/data/royalairmaroc/ram_esourcing_tenders.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
-    <t>object</t>
+    <t>objet</t>
   </si>
   <si>
     <t>date_limite</t>
@@ -31,21 +31,21 @@
     <t>Assistance maîtrise d’ouvrage déléguée fonctionnelle, technique, administrative &amp; économique</t>
   </si>
   <si>
+    <t>AO short Term Lease of 01 CF34-10E6G07 engine</t>
+  </si>
+  <si>
+    <t>AO confection housses sièges B787</t>
+  </si>
+  <si>
+    <t>Assistance comptable</t>
+  </si>
+  <si>
+    <t>Remplacement Firewalls en fin de vie et gestion du spare</t>
+  </si>
+  <si>
     <t>Entretien des espaces verts</t>
   </si>
   <si>
-    <t>AO short Term Lease of 01 CF34-10E6G07 engine</t>
-  </si>
-  <si>
-    <t>AO confection housses sièges B787</t>
-  </si>
-  <si>
-    <t>Assistance comptable</t>
-  </si>
-  <si>
-    <t>Remplacement Firewalls en fin de vie et gestion du spare</t>
-  </si>
-  <si>
     <t>AO achat lot d'outillage avions</t>
   </si>
   <si>
@@ -82,9 +82,6 @@
     <t>17/06/2025 02:30</t>
   </si>
   <si>
-    <t>19/06/2025 02:30</t>
-  </si>
-  <si>
     <t>20/06/2025 20:30</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>25/06/2025 20:30</t>
+  </si>
+  <si>
+    <t>26/06/2025 02:30</t>
   </si>
   <si>
     <t>26/06/2025 08:29</t>
@@ -524,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/data/royalairmaroc/ram_esourcing_tenders.xlsx
+++ b/data/royalairmaroc/ram_esourcing_tenders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>objet</t>
   </si>
@@ -22,7 +22,52 @@
     <t>date_limite</t>
   </si>
   <si>
-    <t>Travaux extension des locaux DT</t>
+    <t>link</t>
+  </si>
+  <si>
+    <t>AO short Term Lease of 01 CF34-10E6G07 engine</t>
+  </si>
+  <si>
+    <t>Ferme photovoltaïque terminal Fret CMN</t>
+  </si>
+  <si>
+    <t>Landing Gear Overhaul/Exchange for Boeing 747-400 (CN-RGA)</t>
+  </si>
+  <si>
+    <t>AO confection housses sièges B787</t>
+  </si>
+  <si>
+    <t>AO confection housses sièges B737NG</t>
+  </si>
+  <si>
+    <t>Entretien des espaces verts</t>
+  </si>
+  <si>
+    <t>AO achat lot d'outillage avions</t>
+  </si>
+  <si>
+    <t>LM ZRH</t>
+  </si>
+  <si>
+    <t>LM MUC</t>
+  </si>
+  <si>
+    <t>Landing Gear Overhaul/Exchange for B737NG fleet</t>
+  </si>
+  <si>
+    <t>Maintenance de la pesée d'avion</t>
+  </si>
+  <si>
+    <t>AO -Réparation APU 331-200 (B767)</t>
+  </si>
+  <si>
+    <t>RFQ catering à ABV</t>
+  </si>
+  <si>
+    <t>RFQ Catering à LOS</t>
+  </si>
+  <si>
+    <t>Assistance comptable</t>
   </si>
   <si>
     <t>Expertise et conseil immobilier pour le développement du nouveau siège Casa-Anfa du Groupe Royal Air Maroc</t>
@@ -31,36 +76,6 @@
     <t>Assistance maîtrise d’ouvrage déléguée fonctionnelle, technique, administrative &amp; économique</t>
   </si>
   <si>
-    <t>AO short Term Lease of 01 CF34-10E6G07 engine</t>
-  </si>
-  <si>
-    <t>AO confection housses sièges B787</t>
-  </si>
-  <si>
-    <t>Assistance comptable</t>
-  </si>
-  <si>
-    <t>Remplacement Firewalls en fin de vie et gestion du spare</t>
-  </si>
-  <si>
-    <t>Entretien des espaces verts</t>
-  </si>
-  <si>
-    <t>AO achat lot d'outillage avions</t>
-  </si>
-  <si>
-    <t>Landing Gear Overhaul/Exchange for B737NG fleet</t>
-  </si>
-  <si>
-    <t>AO -Réparation APU 331-200 (B767)</t>
-  </si>
-  <si>
-    <t>RFQ catering à ABV</t>
-  </si>
-  <si>
-    <t>RFQ Catering à LOS</t>
-  </si>
-  <si>
     <t>Lot 3: Gestion des campagnes Social Ads</t>
   </si>
   <si>
@@ -70,25 +85,16 @@
     <t>Lot 1: Gestion des campagnes SEO sur les moteurs de recherche</t>
   </si>
   <si>
-    <t>AO catering aux aéroports l’acquisition des théières argentées et plateaux argentés</t>
-  </si>
-  <si>
-    <t>BIDT &amp; ABUSE SOLUTION</t>
-  </si>
-  <si>
-    <t>Achat des uniformes RAM</t>
-  </si>
-  <si>
-    <t>17/06/2025 02:30</t>
-  </si>
-  <si>
-    <t>20/06/2025 20:30</t>
-  </si>
-  <si>
     <t>23/06/2025 20:30</t>
   </si>
   <si>
-    <t>25/06/2025 20:30</t>
+    <t>24/06/2025 07:29</t>
+  </si>
+  <si>
+    <t>24/06/2025 08:29</t>
+  </si>
+  <si>
+    <t>25/06/2025 08:29</t>
   </si>
   <si>
     <t>26/06/2025 02:30</t>
@@ -97,32 +103,38 @@
     <t>26/06/2025 08:29</t>
   </si>
   <si>
+    <t>27/06/2025 02:30</t>
+  </si>
+  <si>
     <t>27/06/2025 07:29</t>
   </si>
   <si>
+    <t>27/06/2025 08:29</t>
+  </si>
+  <si>
     <t>27/06/2025 20:30</t>
   </si>
   <si>
     <t>28/06/2025 02:30</t>
   </si>
   <si>
+    <t>30/06/2025 20:30</t>
+  </si>
+  <si>
+    <t>01/07/2025 02:30</t>
+  </si>
+  <si>
     <t>04/07/2025 02:30</t>
   </si>
   <si>
-    <t>09/07/2025 08:29</t>
-  </si>
-  <si>
-    <t>09/07/2025 20:30</t>
-  </si>
-  <si>
-    <t>01/08/2025 02:30</t>
+    <t>https://ram-esourcing.royalairmaroc.com/esop/toolkit/negotiation/rfq/DetailRfq.do</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +149,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,16 +190,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,173 +498,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>